--- a/public/sampleExcel/wh_products_import_sample.xlsx
+++ b/public/sampleExcel/wh_products_import_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE9212-0A1D-4DC7-AC0B-D303C27C73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20BF4DA-5F50-4840-9323-7B1EC5FCBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>product_code</t>
   </si>
@@ -50,13 +50,13 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>PRO-ELT-0001-07</t>
-  </si>
-  <si>
-    <t>PROD CEN WH</t>
-  </si>
-  <si>
-    <t>PRO-ELT-000dd1-08</t>
+    <t>order_leadtime_days</t>
+  </si>
+  <si>
+    <t>stock_out_forecast_days</t>
+  </si>
+  <si>
+    <t>target_inv_turnover_days</t>
   </si>
 </sst>
 </file>
@@ -380,21 +380,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,34 +408,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2222</v>
-      </c>
-      <c r="D2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2222</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
